--- a/data/Schedule2425.xlsx
+++ b/data/Schedule2425.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cverhoosel/Documents/2_Education/4GB00_Energy_Storage_and_Transport/Energy-Storage-and-Transport.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5545BD63-507C-A643-9980-5FDC8CA0C333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884FF2FE-C703-CB4B-AD76-E243C3C06210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{2D163C62-21D0-CD47-A46E-4E9962794ACA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{2D163C62-21D0-CD47-A46E-4E9962794ACA}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="198">
   <si>
     <t>Rooms</t>
   </si>
@@ -631,6 +631,9 @@
   </si>
   <si>
     <t>Tutor meetings: Monday weeks 2-7, Tuesday week 8, 13:45-14:15</t>
+  </si>
+  <si>
+    <t>2,3,4,7,8</t>
   </si>
 </sst>
 </file>
@@ -792,7 +795,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -807,25 +810,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -834,37 +825,16 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -891,17 +861,47 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -939,8 +939,8 @@
     <tableColumn id="8" xr3:uid="{E32779FF-6F23-744F-B253-38671C6E9FDD}" name="Groups [2]" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{A90B74BE-025C-3640-B822-31AE91BA5FEF}" name="Groups [3]" dataDxfId="3"/>
     <tableColumn id="10" xr3:uid="{B8CDAF5D-378D-A343-A1F1-58EB0338D391}" name="Groups [4]" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{52BEFC4A-A7D0-EC43-9CE3-7D3DDE6D446C}" name="Groups [5]" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{9A8E4644-D273-A842-B409-D8AF56265DFA}" name="Weeks" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{52BEFC4A-A7D0-EC43-9CE3-7D3DDE6D446C}" name="Groups [5]" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{9A8E4644-D273-A842-B409-D8AF56265DFA}" name="Weeks" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{6184E758-F8ED-CC41-B96B-FAC0C1C0F041}" name="Slot [day]"/>
     <tableColumn id="11" xr3:uid="{4ADD2BFA-3052-784E-9B4B-42FAD674418C}" name="Slot [time]"/>
     <tableColumn id="5" xr3:uid="{CC3455A1-FB1A-0144-969C-B04316284FAF}" name="Rooms"/>
@@ -1268,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C24B97F-BE93-2B4C-9C2D-295859860AD0}">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1297,10 +1297,10 @@
       <c r="D1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="15" t="s">
         <v>181</v>
       </c>
       <c r="G1" t="s">
@@ -2094,7 +2094,7 @@
       <c r="C30" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="4">
         <v>1</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -2124,7 +2124,7 @@
       <c r="C31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="4">
         <v>1</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -2154,7 +2154,7 @@
       <c r="C32" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="4">
         <v>1</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -2175,29 +2175,29 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" s="29" t="s">
+      <c r="A33" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="29">
-        <v>1</v>
-      </c>
-      <c r="E33" s="30" t="s">
+      <c r="D33" s="18">
+        <v>1</v>
+      </c>
+      <c r="E33" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="30"/>
-      <c r="G33" s="31">
+      <c r="F33" s="19"/>
+      <c r="G33" s="20">
         <v>8</v>
       </c>
-      <c r="H33" s="32" t="s">
+      <c r="H33" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="I33" s="32" t="s">
+      <c r="I33" s="21" t="s">
         <v>104</v>
       </c>
       <c r="J33" t="s">
@@ -2214,7 +2214,7 @@
       <c r="C34" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="4">
         <v>2</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -2244,7 +2244,7 @@
       <c r="C35" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="4">
         <v>2</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -2274,7 +2274,7 @@
       <c r="C36" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="4">
         <v>2</v>
       </c>
       <c r="E36" s="5" t="s">
@@ -2304,7 +2304,7 @@
       <c r="C37" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="4">
         <v>2</v>
       </c>
       <c r="E37" s="5" t="s">
@@ -2415,29 +2415,29 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="B41" s="29" t="s">
+      <c r="A41" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="30">
-        <v>1</v>
-      </c>
-      <c r="E41" s="30" t="s">
+      <c r="D41" s="19">
+        <v>1</v>
+      </c>
+      <c r="E41" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="30"/>
-      <c r="G41" s="31">
+      <c r="F41" s="19"/>
+      <c r="G41" s="20">
         <v>8</v>
       </c>
-      <c r="H41" s="32" t="s">
+      <c r="H41" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="I41" s="32" t="s">
+      <c r="I41" s="21" t="s">
         <v>105</v>
       </c>
       <c r="J41" t="s">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H51" t="s">
         <v>42</v>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H59" t="s">
         <v>42</v>
@@ -3135,29 +3135,29 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="17" t="s">
         <v>103</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C65" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="30">
-        <v>1</v>
-      </c>
-      <c r="E65" s="30" t="s">
+      <c r="D65" s="19">
+        <v>1</v>
+      </c>
+      <c r="E65" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F65" s="30"/>
-      <c r="G65" s="31">
+      <c r="F65" s="19"/>
+      <c r="G65" s="20">
         <v>8</v>
       </c>
-      <c r="H65" s="32" t="s">
+      <c r="H65" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="I65" s="32" t="s">
+      <c r="I65" s="21" t="s">
         <v>108</v>
       </c>
       <c r="J65" t="s">
@@ -3375,29 +3375,29 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="17" t="s">
         <v>103</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="29" t="s">
+      <c r="C73" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D73" s="30">
-        <v>1</v>
-      </c>
-      <c r="E73" s="30" t="s">
+      <c r="D73" s="19">
+        <v>1</v>
+      </c>
+      <c r="E73" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F73" s="30"/>
-      <c r="G73" s="31">
+      <c r="F73" s="19"/>
+      <c r="G73" s="20">
         <v>8</v>
       </c>
-      <c r="H73" s="32" t="s">
+      <c r="H73" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="I73" s="32" t="s">
+      <c r="I73" s="21" t="s">
         <v>109</v>
       </c>
       <c r="J73" t="s">
@@ -4603,14 +4603,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E639AAA7-F5CE-CE4D-BB04-7A56CA8796FF}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="16" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="16" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4644,12 +4644,12 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="16" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="16" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5092,8 +5092,8 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
@@ -5103,930 +5103,930 @@
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="19.83203125" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="6">
+        <v>1</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="23" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>2</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="12" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="23" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>3</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="24" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>4</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="12" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="24" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>5</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="23" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>6</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="12" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="23" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>7</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="24" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>8</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="12" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="24" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>9</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="23" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>10</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="11" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="23" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>11</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="12" t="s">
+      <c r="B11" s="38"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="24" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>12</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="12" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="24" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>13</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="11" t="s">
+      <c r="B13" s="38"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="23" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>14</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="11" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="23" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>15</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="12" t="s">
+      <c r="B15" s="38"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="24" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>16</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="12" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="24" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>17</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="38"/>
+      <c r="C17" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="25" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>18</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="16" t="s">
+      <c r="B18" s="38"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="25" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>19</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15" t="s">
+      <c r="B19" s="38"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="26" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>20</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="16" t="s">
+      <c r="B20" s="38"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="37" t="s">
+      <c r="F20" s="26" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>21</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15" t="s">
+      <c r="B21" s="38"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="25" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>22</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="16" t="s">
+      <c r="B22" s="38"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="25" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>23</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15" t="s">
+      <c r="B23" s="38"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="26" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>24</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="16" t="s">
+      <c r="B24" s="38"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F24" s="26" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>25</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="8" t="s">
+      <c r="B25" s="38"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="25" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>26</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="16" t="s">
+      <c r="B26" s="38"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="36" t="s">
+      <c r="F26" s="25" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>27</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="15" t="s">
+      <c r="B27" s="38"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="37" t="s">
+      <c r="F27" s="26" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>28</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="16" t="s">
+      <c r="B28" s="38"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="26" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>29</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="15" t="s">
+      <c r="B29" s="38"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="25" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>30</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="16" t="s">
+      <c r="B30" s="38"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="25" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>31</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="15" t="s">
+      <c r="B31" s="38"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="37" t="s">
+      <c r="F31" s="26" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>32</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="16" t="s">
+      <c r="B32" s="38"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="37" t="s">
+      <c r="F32" s="26" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>33</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="38" t="s">
+      <c r="F33" s="27" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>34</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="21" t="s">
+      <c r="B34" s="31"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="38" t="s">
+      <c r="F34" s="27" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>35</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20" t="s">
+      <c r="B35" s="31"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="39" t="s">
+      <c r="F35" s="28" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>36</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="21" t="s">
+      <c r="B36" s="31"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="39" t="s">
+      <c r="F36" s="28" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>37</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20" t="s">
+      <c r="B37" s="31"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="38" t="s">
+      <c r="F37" s="27" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>38</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="21" t="s">
+      <c r="B38" s="31"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="38" t="s">
+      <c r="F38" s="27" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>39</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20" t="s">
+      <c r="B39" s="31"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="39" t="s">
+      <c r="F39" s="28" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>40</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="21" t="s">
+      <c r="B40" s="31"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="39" t="s">
+      <c r="F40" s="28" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>41</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="17" t="s">
+      <c r="B41" s="31"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="38" t="s">
+      <c r="F41" s="27" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>42</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="21" t="s">
+      <c r="B42" s="31"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F42" s="38" t="s">
+      <c r="F42" s="27" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
+      <c r="A43" s="6">
         <v>43</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="20" t="s">
+      <c r="B43" s="31"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F43" s="39" t="s">
+      <c r="F43" s="28" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <v>44</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="21" t="s">
+      <c r="B44" s="31"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="39" t="s">
+      <c r="F44" s="28" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>45</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="20" t="s">
+      <c r="B45" s="31"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F45" s="38" t="s">
+      <c r="F45" s="27" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
+      <c r="A46" s="6">
         <v>46</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="21" t="s">
+      <c r="B46" s="31"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="38" t="s">
+      <c r="F46" s="27" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>47</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="20" t="s">
+      <c r="B47" s="31"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="39" t="s">
+      <c r="F47" s="28" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
+      <c r="A48" s="6">
         <v>48</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="21" t="s">
+      <c r="B48" s="31"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="39" t="s">
+      <c r="F48" s="28" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="7">
+      <c r="A49" s="6">
         <v>49</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="22" t="s">
+      <c r="B49" s="31"/>
+      <c r="C49" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="24" t="s">
+      <c r="E49" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F49" s="40" t="s">
+      <c r="F49" s="29" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="7">
+      <c r="A50" s="6">
         <v>50</v>
       </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="25" t="s">
+      <c r="B50" s="31"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F50" s="40" t="s">
+      <c r="F50" s="29" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>51</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="24" t="s">
+      <c r="B51" s="31"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="41" t="s">
+      <c r="F51" s="30" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="7">
+      <c r="A52" s="6">
         <v>52</v>
       </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="25" t="s">
+      <c r="B52" s="31"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F52" s="41" t="s">
+      <c r="F52" s="30" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="7">
+      <c r="A53" s="6">
         <v>53</v>
       </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="24" t="s">
+      <c r="B53" s="31"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="40" t="s">
+      <c r="F53" s="29" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="7">
+      <c r="A54" s="6">
         <v>54</v>
       </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="25" t="s">
+      <c r="B54" s="31"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F54" s="40" t="s">
+      <c r="F54" s="29" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="7">
+      <c r="A55" s="6">
         <v>55</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="24" t="s">
+      <c r="B55" s="31"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F55" s="41" t="s">
+      <c r="F55" s="30" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="7">
+      <c r="A56" s="6">
         <v>56</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="25" t="s">
+      <c r="B56" s="31"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F56" s="41" t="s">
+      <c r="F56" s="30" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="7">
+      <c r="A57" s="6">
         <v>57</v>
       </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="17" t="s">
+      <c r="B57" s="31"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="24" t="s">
+      <c r="E57" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="40" t="s">
+      <c r="F57" s="29" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="7">
+      <c r="A58" s="6">
         <v>58</v>
       </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="25" t="s">
+      <c r="B58" s="31"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F58" s="40" t="s">
+      <c r="F58" s="29" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="7">
+      <c r="A59" s="6">
         <v>59</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="24" t="s">
+      <c r="B59" s="31"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F59" s="41" t="s">
+      <c r="F59" s="30" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="7">
+      <c r="A60" s="6">
         <v>60</v>
       </c>
-      <c r="B60" s="17"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="25" t="s">
+      <c r="B60" s="31"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F60" s="41" t="s">
+      <c r="F60" s="30" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="7">
+      <c r="A61" s="6">
         <v>61</v>
       </c>
-      <c r="B61" s="17"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="24" t="s">
+      <c r="B61" s="31"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F61" s="40" t="s">
+      <c r="F61" s="29" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="7">
+      <c r="A62" s="6">
         <v>62</v>
       </c>
-      <c r="B62" s="17"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="25" t="s">
+      <c r="B62" s="31"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F62" s="40" t="s">
+      <c r="F62" s="29" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="7">
+      <c r="A63" s="6">
         <v>63</v>
       </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="24" t="s">
+      <c r="B63" s="31"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F63" s="41" t="s">
+      <c r="F63" s="30" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="7">
+      <c r="A64" s="6">
         <v>64</v>
       </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="25" t="s">
+      <c r="B64" s="31"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F64" s="41" t="s">
+      <c r="F64" s="30" t="s">
         <v>180</v>
       </c>
     </row>

--- a/data/Schedule2425.xlsx
+++ b/data/Schedule2425.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cverhoosel/Documents/2_Education/4GB00_Energy_Storage_and_Transport/Energy-Storage-and-Transport.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884FF2FE-C703-CB4B-AD76-E243C3C06210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3A9B91-1DB6-654C-97DD-908E4837D7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{2D163C62-21D0-CD47-A46E-4E9962794ACA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{2D163C62-21D0-CD47-A46E-4E9962794ACA}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="207">
   <si>
     <t>Rooms</t>
   </si>
@@ -333,9 +333,6 @@
     <t>SIM/zone opening 7+8</t>
   </si>
   <si>
-    <t>SIM/zone</t>
-  </si>
-  <si>
     <t>Monday</t>
   </si>
   <si>
@@ -399,9 +396,6 @@
     <t>16:30-17:30</t>
   </si>
   <si>
-    <t>8 CBL rooms</t>
-  </si>
-  <si>
     <t>Measurement practical</t>
   </si>
   <si>
@@ -432,9 +426,6 @@
     <t>Monday in week 8 is moved to the Tuesday</t>
   </si>
   <si>
-    <t>4 CBL rooms</t>
-  </si>
-  <si>
     <t>2,4,6,7</t>
   </si>
   <si>
@@ -591,12 +582,6 @@
     <t>presentation 1</t>
   </si>
   <si>
-    <t>4 rooms (&gt;16)</t>
-  </si>
-  <si>
-    <t>Lecture room (~180)</t>
-  </si>
-  <si>
     <t>presentation 2</t>
   </si>
   <si>
@@ -612,9 +597,6 @@
     <t>13:30-14:00</t>
   </si>
   <si>
-    <t xml:space="preserve">2 practical rooms (&gt;24) </t>
-  </si>
-  <si>
     <t>Extra lab sessions skipped to make sure all groups have equally many meetings:</t>
   </si>
   <si>
@@ -634,6 +616,51 @@
   </si>
   <si>
     <t>2,3,4,7,8</t>
+  </si>
+  <si>
+    <t>Gemini-South Lecture Room</t>
+  </si>
+  <si>
+    <t>Auditorium 1</t>
+  </si>
+  <si>
+    <t>Gemini-South 3A.04 (SEL)</t>
+  </si>
+  <si>
+    <t>Neuron 0.352, Neuron 0.356</t>
+  </si>
+  <si>
+    <t>Metaforum 14, Metaforum 15</t>
+  </si>
+  <si>
+    <t>Neuron -1.354, Neuron 0.264</t>
+  </si>
+  <si>
+    <t>Atlas 2.320, Atlas 5.201</t>
+  </si>
+  <si>
+    <t>Atlas 2.320, Atlas 3.201</t>
+  </si>
+  <si>
+    <t>Neuron 0.352, Neuron 0.354</t>
+  </si>
+  <si>
+    <t>Neuron -1.350, Neuron -1.354</t>
+  </si>
+  <si>
+    <t>TR 1.25, TR1.26, TR 1.27, TR 1.28</t>
+  </si>
+  <si>
+    <t>TR1.33, TR1.34, TR 1.35, TR 1.36</t>
+  </si>
+  <si>
+    <t>TR 1.25, TR 1.26, TR 1.27, TR 1.28, TR 1.33, TR 1.34, TR 1.35, TR 1.36</t>
+  </si>
+  <si>
+    <t>Atlas 5.320, Matrix 1.122, Neuron 0.352, Neuron 0.356</t>
+  </si>
+  <si>
+    <t>Atlas 3.201, Atlas 5.201, Atlas 5.320, Neuron 0.356</t>
   </si>
 </sst>
 </file>
@@ -676,7 +703,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -743,8 +770,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0E6F5"/>
+        <bgColor rgb="FFC0E6F5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -791,11 +824,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF44B3E1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF44B3E1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF44B3E1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -891,6 +937,8 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1268,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C24B97F-BE93-2B4C-9C2D-295859860AD0}">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J109" sqref="J109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1281,7 +1329,7 @@
     <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="59" x14ac:dyDescent="0.2">
@@ -1301,7 +1349,7 @@
         <v>39</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -1337,7 +1385,7 @@
         <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1361,7 +1409,7 @@
         <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1385,7 +1433,7 @@
         <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1409,7 +1457,7 @@
         <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1437,7 +1485,7 @@
         <v>96</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1456,7 +1504,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H7" t="s">
         <v>42</v>
@@ -1465,7 +1513,7 @@
         <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1484,16 +1532,16 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I8" t="s">
         <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1515,13 +1563,13 @@
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I9" t="s">
         <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1549,7 +1597,7 @@
         <v>85</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1568,7 +1616,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H11" t="s">
         <v>42</v>
@@ -1577,7 +1625,7 @@
         <v>92</v>
       </c>
       <c r="J11" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1596,16 +1644,16 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I12" t="s">
         <v>88</v>
       </c>
       <c r="J12" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1627,13 +1675,13 @@
         <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I13" t="s">
         <v>88</v>
       </c>
       <c r="J13" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1661,7 +1709,7 @@
         <v>82</v>
       </c>
       <c r="J14" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1680,7 +1728,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H15" t="s">
         <v>43</v>
@@ -1689,7 +1737,7 @@
         <v>93</v>
       </c>
       <c r="J15" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1708,16 +1756,16 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I16" t="s">
         <v>91</v>
       </c>
       <c r="J16" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1739,13 +1787,13 @@
         <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I17" t="s">
         <v>91</v>
       </c>
       <c r="J17" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1773,7 +1821,7 @@
         <v>84</v>
       </c>
       <c r="J18" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1792,7 +1840,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H19" t="s">
         <v>43</v>
@@ -1801,7 +1849,7 @@
         <v>88</v>
       </c>
       <c r="J19" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1820,16 +1868,16 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I20" t="s">
         <v>92</v>
       </c>
       <c r="J20" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1851,18 +1899,18 @@
         <v>8</v>
       </c>
       <c r="H21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I21" t="s">
         <v>92</v>
       </c>
       <c r="J21" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>6</v>
@@ -1879,18 +1927,18 @@
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J22" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>6</v>
@@ -1910,15 +1958,15 @@
         <v>42</v>
       </c>
       <c r="I23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J23" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>6</v>
@@ -1935,18 +1983,18 @@
         <v>5</v>
       </c>
       <c r="H24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J24" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>6</v>
@@ -1966,15 +2014,15 @@
         <v>42</v>
       </c>
       <c r="I25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J25" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>7</v>
@@ -1991,18 +2039,18 @@
         <v>4</v>
       </c>
       <c r="H26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J26" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>7</v>
@@ -2022,15 +2070,15 @@
         <v>43</v>
       </c>
       <c r="I27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J27" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>7</v>
@@ -2047,18 +2095,18 @@
         <v>5</v>
       </c>
       <c r="H28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J28" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>7</v>
@@ -2078,15 +2126,15 @@
         <v>43</v>
       </c>
       <c r="I29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J29" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>6</v>
@@ -2111,12 +2159,12 @@
         <v>70</v>
       </c>
       <c r="J30" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>6</v>
@@ -2132,21 +2180,21 @@
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H31" t="s">
         <v>42</v>
       </c>
       <c r="I31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J31" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>6</v>
@@ -2162,21 +2210,21 @@
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I32" t="s">
-        <v>104</v>
-      </c>
-      <c r="J32" t="s">
-        <v>130</v>
+        <v>103</v>
+      </c>
+      <c r="J32" s="41" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>6</v>
@@ -2195,18 +2243,18 @@
         <v>8</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="J33" t="s">
-        <v>130</v>
+        <v>103</v>
+      </c>
+      <c r="J33" s="41" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>6</v>
@@ -2231,12 +2279,12 @@
         <v>70</v>
       </c>
       <c r="J34" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>6</v>
@@ -2252,21 +2300,21 @@
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H35" t="s">
         <v>42</v>
       </c>
       <c r="I35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J35" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>6</v>
@@ -2282,21 +2330,21 @@
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J36" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>6</v>
@@ -2315,18 +2363,18 @@
         <v>8</v>
       </c>
       <c r="H37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J37" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>6</v>
@@ -2351,12 +2399,12 @@
         <v>71</v>
       </c>
       <c r="J38" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>6</v>
@@ -2372,21 +2420,21 @@
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H39" t="s">
         <v>42</v>
       </c>
       <c r="I39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J39" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>6</v>
@@ -2402,21 +2450,21 @@
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J40" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B41" s="18" t="s">
         <v>6</v>
@@ -2435,18 +2483,18 @@
         <v>8</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J41" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>6</v>
@@ -2471,12 +2519,12 @@
         <v>71</v>
       </c>
       <c r="J42" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>6</v>
@@ -2492,21 +2540,21 @@
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H43" t="s">
         <v>42</v>
       </c>
       <c r="I43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J43" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>6</v>
@@ -2522,21 +2570,21 @@
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J44" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>6</v>
@@ -2555,18 +2603,18 @@
         <v>8</v>
       </c>
       <c r="H45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J45" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>6</v>
@@ -2591,12 +2639,12 @@
         <v>72</v>
       </c>
       <c r="J46" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>6</v>
@@ -2612,21 +2660,21 @@
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H47" t="s">
         <v>42</v>
       </c>
       <c r="I47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J47" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>6</v>
@@ -2642,21 +2690,21 @@
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J48" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>6</v>
@@ -2675,18 +2723,18 @@
         <v>8</v>
       </c>
       <c r="H49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J49" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>6</v>
@@ -2711,12 +2759,12 @@
         <v>72</v>
       </c>
       <c r="J50" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>6</v>
@@ -2732,21 +2780,21 @@
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H51" t="s">
         <v>42</v>
       </c>
       <c r="I51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J51" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>6</v>
@@ -2762,21 +2810,21 @@
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J52" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>6</v>
@@ -2795,18 +2843,18 @@
         <v>8</v>
       </c>
       <c r="H53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J53" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>6</v>
@@ -2831,12 +2879,12 @@
         <v>73</v>
       </c>
       <c r="J54" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>6</v>
@@ -2852,21 +2900,21 @@
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H55" t="s">
         <v>42</v>
       </c>
       <c r="I55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J55" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>6</v>
@@ -2882,21 +2930,21 @@
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J56" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>6</v>
@@ -2915,18 +2963,18 @@
         <v>8</v>
       </c>
       <c r="H57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J57" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>6</v>
@@ -2951,12 +2999,12 @@
         <v>73</v>
       </c>
       <c r="J58" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>6</v>
@@ -2972,21 +3020,21 @@
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H59" t="s">
         <v>42</v>
       </c>
       <c r="I59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J59" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>6</v>
@@ -3002,21 +3050,21 @@
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J60" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>6</v>
@@ -3035,18 +3083,18 @@
         <v>8</v>
       </c>
       <c r="H61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J61" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>7</v>
@@ -3071,12 +3119,12 @@
         <v>66</v>
       </c>
       <c r="J62" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>7</v>
@@ -3092,21 +3140,21 @@
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H63" t="s">
         <v>43</v>
       </c>
       <c r="I63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J63" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>7</v>
@@ -3122,21 +3170,21 @@
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J64" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>7</v>
@@ -3155,18 +3203,18 @@
         <v>8</v>
       </c>
       <c r="H65" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I65" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J65" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>7</v>
@@ -3191,12 +3239,12 @@
         <v>70</v>
       </c>
       <c r="J66" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>7</v>
@@ -3212,21 +3260,21 @@
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H67" t="s">
         <v>43</v>
       </c>
       <c r="I67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J67" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>7</v>
@@ -3242,21 +3290,21 @@
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J68" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>7</v>
@@ -3275,18 +3323,18 @@
         <v>8</v>
       </c>
       <c r="H69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I69" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J69" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>7</v>
@@ -3311,12 +3359,12 @@
         <v>67</v>
       </c>
       <c r="J70" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>7</v>
@@ -3332,21 +3380,21 @@
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H71" t="s">
         <v>43</v>
       </c>
       <c r="I71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J71" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>7</v>
@@ -3362,21 +3410,21 @@
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J72" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>7</v>
@@ -3395,18 +3443,18 @@
         <v>8</v>
       </c>
       <c r="H73" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I73" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J73" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>7</v>
@@ -3430,13 +3478,13 @@
       <c r="I74" t="s">
         <v>67</v>
       </c>
-      <c r="J74" t="s">
-        <v>130</v>
+      <c r="J74" s="42" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>7</v>
@@ -3452,21 +3500,21 @@
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H75" t="s">
         <v>43</v>
       </c>
       <c r="I75" t="s">
-        <v>105</v>
-      </c>
-      <c r="J75" t="s">
-        <v>130</v>
+        <v>104</v>
+      </c>
+      <c r="J75" s="42" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>7</v>
@@ -3482,21 +3530,21 @@
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I76" t="s">
-        <v>109</v>
-      </c>
-      <c r="J76" t="s">
-        <v>130</v>
+        <v>108</v>
+      </c>
+      <c r="J76" s="42" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>7</v>
@@ -3515,18 +3563,18 @@
         <v>8</v>
       </c>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I77" t="s">
-        <v>109</v>
-      </c>
-      <c r="J77" t="s">
-        <v>130</v>
+        <v>108</v>
+      </c>
+      <c r="J77" s="42" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>7</v>
@@ -3551,12 +3599,12 @@
         <v>68</v>
       </c>
       <c r="J78" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>7</v>
@@ -3572,21 +3620,21 @@
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H79" t="s">
         <v>43</v>
       </c>
       <c r="I79" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J79" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>7</v>
@@ -3602,21 +3650,21 @@
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J80" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>7</v>
@@ -3635,18 +3683,18 @@
         <v>8</v>
       </c>
       <c r="H81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J81" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>7</v>
@@ -3671,12 +3719,12 @@
         <v>68</v>
       </c>
       <c r="J82" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>7</v>
@@ -3692,21 +3740,21 @@
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H83" t="s">
         <v>43</v>
       </c>
       <c r="I83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J83" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>7</v>
@@ -3722,21 +3770,21 @@
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H84" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I84" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J84" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>7</v>
@@ -3755,18 +3803,18 @@
         <v>8</v>
       </c>
       <c r="H85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I85" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J85" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>7</v>
@@ -3791,12 +3839,12 @@
         <v>69</v>
       </c>
       <c r="J86" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>7</v>
@@ -3812,21 +3860,21 @@
       </c>
       <c r="F87" s="5"/>
       <c r="G87" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H87" t="s">
         <v>43</v>
       </c>
       <c r="I87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J87" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>7</v>
@@ -3842,21 +3890,21 @@
       </c>
       <c r="F88" s="5"/>
       <c r="G88" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I88" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J88" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>7</v>
@@ -3875,18 +3923,18 @@
         <v>8</v>
       </c>
       <c r="H89" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I89" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J89" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>7</v>
@@ -3911,12 +3959,12 @@
         <v>69</v>
       </c>
       <c r="J90" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>7</v>
@@ -3932,21 +3980,21 @@
       </c>
       <c r="F91" s="5"/>
       <c r="G91" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H91" t="s">
         <v>43</v>
       </c>
       <c r="I91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J91" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>7</v>
@@ -3962,21 +4010,21 @@
       </c>
       <c r="F92" s="5"/>
       <c r="G92" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I92" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J92" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>7</v>
@@ -3995,18 +4043,18 @@
         <v>8</v>
       </c>
       <c r="H93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I93" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J93" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>6</v>
@@ -4026,15 +4074,15 @@
         <v>42</v>
       </c>
       <c r="I94" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J94" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>6</v>
@@ -4054,15 +4102,15 @@
         <v>42</v>
       </c>
       <c r="I95" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J95" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>6</v>
@@ -4082,15 +4130,15 @@
         <v>42</v>
       </c>
       <c r="I96" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J96" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>6</v>
@@ -4110,15 +4158,15 @@
         <v>42</v>
       </c>
       <c r="I97" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J97" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>7</v>
@@ -4138,15 +4186,15 @@
         <v>43</v>
       </c>
       <c r="I98" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J98" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>7</v>
@@ -4166,15 +4214,15 @@
         <v>43</v>
       </c>
       <c r="I99" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J99" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>7</v>
@@ -4194,15 +4242,15 @@
         <v>43</v>
       </c>
       <c r="I100" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J100" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>7</v>
@@ -4222,15 +4270,15 @@
         <v>43</v>
       </c>
       <c r="I101" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J101" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>6</v>
@@ -4239,24 +4287,24 @@
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G102" s="2">
         <v>9</v>
       </c>
       <c r="H102" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I102" t="s">
         <v>46</v>
       </c>
       <c r="J102" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>6</v>
@@ -4265,24 +4313,24 @@
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G103" s="2">
         <v>9</v>
       </c>
       <c r="H103" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I103" t="s">
         <v>48</v>
       </c>
       <c r="J103" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>6</v>
@@ -4291,24 +4339,24 @@
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G104" s="2">
         <v>9</v>
       </c>
       <c r="H104" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I104" t="s">
         <v>50</v>
       </c>
       <c r="J104" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>6</v>
@@ -4317,24 +4365,24 @@
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G105" s="2">
         <v>9</v>
       </c>
       <c r="H105" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I105" t="s">
         <v>52</v>
       </c>
       <c r="J105" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>7</v>
@@ -4343,24 +4391,24 @@
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G106" s="2">
         <v>9</v>
       </c>
       <c r="H106" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I106" t="s">
         <v>54</v>
       </c>
       <c r="J106" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>7</v>
@@ -4369,24 +4417,24 @@
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G107" s="2">
         <v>9</v>
       </c>
       <c r="H107" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I107" t="s">
         <v>56</v>
       </c>
       <c r="J107" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>7</v>
@@ -4395,24 +4443,24 @@
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G108" s="2">
         <v>9</v>
       </c>
       <c r="H108" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I108" t="s">
         <v>58</v>
       </c>
       <c r="J108" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>7</v>
@@ -4421,19 +4469,19 @@
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G109" s="2">
         <v>9</v>
       </c>
       <c r="H109" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I109" t="s">
         <v>60</v>
       </c>
       <c r="J109" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
@@ -4611,20 +4659,20 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
@@ -4632,12 +4680,12 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
@@ -4645,12 +4693,12 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4684,7 +4732,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -4694,17 +4742,17 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4776,10 +4824,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -4832,15 +4880,15 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
         <v>62</v>
@@ -4848,58 +4896,58 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -4907,7 +4955,7 @@
         <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -4915,7 +4963,7 @@
         <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -5016,31 +5064,31 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B37" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B39" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B40" t="s">
         <v>53</v>
@@ -5048,34 +5096,34 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5092,8 +5140,8 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
@@ -5123,7 +5171,7 @@
         <v>21</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -5137,7 +5185,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -5151,7 +5199,7 @@
         <v>21</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -5165,7 +5213,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -5179,7 +5227,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -5193,7 +5241,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -5207,7 +5255,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -5221,7 +5269,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -5237,7 +5285,7 @@
         <v>23</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -5251,7 +5299,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -5265,7 +5313,7 @@
         <v>23</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -5279,7 +5327,7 @@
         <v>22</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -5293,7 +5341,7 @@
         <v>23</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -5307,7 +5355,7 @@
         <v>22</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -5321,7 +5369,7 @@
         <v>23</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -5335,7 +5383,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -5353,7 +5401,7 @@
         <v>25</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -5367,7 +5415,7 @@
         <v>24</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -5381,7 +5429,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -5395,7 +5443,7 @@
         <v>24</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -5409,7 +5457,7 @@
         <v>25</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -5423,7 +5471,7 @@
         <v>24</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -5437,7 +5485,7 @@
         <v>25</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -5451,7 +5499,7 @@
         <v>24</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -5467,7 +5515,7 @@
         <v>27</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -5481,7 +5529,7 @@
         <v>26</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -5495,7 +5543,7 @@
         <v>27</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -5509,7 +5557,7 @@
         <v>26</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -5523,7 +5571,7 @@
         <v>27</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -5537,7 +5585,7 @@
         <v>26</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -5551,7 +5599,7 @@
         <v>27</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.3">
@@ -5565,7 +5613,7 @@
         <v>26</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -5585,7 +5633,7 @@
         <v>29</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -5599,7 +5647,7 @@
         <v>28</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -5613,7 +5661,7 @@
         <v>29</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -5627,7 +5675,7 @@
         <v>28</v>
       </c>
       <c r="F36" s="28" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -5641,7 +5689,7 @@
         <v>29</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -5655,7 +5703,7 @@
         <v>28</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -5669,7 +5717,7 @@
         <v>29</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -5683,7 +5731,7 @@
         <v>28</v>
       </c>
       <c r="F40" s="28" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -5699,7 +5747,7 @@
         <v>31</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -5713,7 +5761,7 @@
         <v>30</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -5727,7 +5775,7 @@
         <v>31</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -5741,7 +5789,7 @@
         <v>30</v>
       </c>
       <c r="F44" s="28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -5755,7 +5803,7 @@
         <v>31</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -5769,7 +5817,7 @@
         <v>30</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -5783,7 +5831,7 @@
         <v>31</v>
       </c>
       <c r="F47" s="28" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -5797,7 +5845,7 @@
         <v>30</v>
       </c>
       <c r="F48" s="28" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -5815,7 +5863,7 @@
         <v>33</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -5829,7 +5877,7 @@
         <v>32</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -5843,7 +5891,7 @@
         <v>33</v>
       </c>
       <c r="F51" s="30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -5857,7 +5905,7 @@
         <v>32</v>
       </c>
       <c r="F52" s="30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -5871,7 +5919,7 @@
         <v>33</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -5885,7 +5933,7 @@
         <v>32</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -5899,7 +5947,7 @@
         <v>33</v>
       </c>
       <c r="F55" s="30" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -5913,7 +5961,7 @@
         <v>32</v>
       </c>
       <c r="F56" s="30" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -5929,7 +5977,7 @@
         <v>35</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -5943,7 +5991,7 @@
         <v>34</v>
       </c>
       <c r="F58" s="29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -5957,7 +6005,7 @@
         <v>35</v>
       </c>
       <c r="F59" s="30" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -5971,7 +6019,7 @@
         <v>34</v>
       </c>
       <c r="F60" s="30" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -5985,7 +6033,7 @@
         <v>35</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -5999,7 +6047,7 @@
         <v>34</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -6013,7 +6061,7 @@
         <v>35</v>
       </c>
       <c r="F63" s="30" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -6027,7 +6075,7 @@
         <v>34</v>
       </c>
       <c r="F64" s="30" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/data/Schedule2425.xlsx
+++ b/data/Schedule2425.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cverhoosel/Documents/2_Education/4GB00_Energy_Storage_and_Transport/Energy-Storage-and-Transport.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3A9B91-1DB6-654C-97DD-908E4837D7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E563115C-8598-AA48-B6F8-6919E487C359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{2D163C62-21D0-CD47-A46E-4E9962794ACA}"/>
   </bookViews>
@@ -907,6 +907,8 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -937,8 +939,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1316,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C24B97F-BE93-2B4C-9C2D-295859860AD0}">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J109" sqref="J109"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2218,7 +2218,7 @@
       <c r="I32" t="s">
         <v>103</v>
       </c>
-      <c r="J32" s="41" t="s">
+      <c r="J32" s="31" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       <c r="I33" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="J33" s="41" t="s">
+      <c r="J33" s="31" t="s">
         <v>202</v>
       </c>
     </row>
@@ -3233,10 +3233,10 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I66" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J66" t="s">
         <v>203</v>
@@ -3478,7 +3478,7 @@
       <c r="I74" t="s">
         <v>67</v>
       </c>
-      <c r="J74" s="42" t="s">
+      <c r="J74" s="32" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3508,7 +3508,7 @@
       <c r="I75" t="s">
         <v>104</v>
       </c>
-      <c r="J75" s="42" t="s">
+      <c r="J75" s="32" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3538,7 +3538,7 @@
       <c r="I76" t="s">
         <v>108</v>
       </c>
-      <c r="J76" s="42" t="s">
+      <c r="J76" s="32" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3568,7 +3568,7 @@
       <c r="I77" t="s">
         <v>108</v>
       </c>
-      <c r="J77" s="42" t="s">
+      <c r="J77" s="32" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4765,7 +4765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44EEBB0-7826-4541-973F-D32118CA52EC}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -5140,8 +5140,8 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
@@ -5158,13 +5158,13 @@
       <c r="A1" s="6">
         <v>1</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="39" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="8" t="s">
@@ -5178,9 +5178,9 @@
       <c r="A2" s="6">
         <v>2</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="7" t="s">
         <v>20</v>
       </c>
@@ -5192,9 +5192,9 @@
       <c r="A3" s="6">
         <v>3</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="37"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="8" t="s">
         <v>21</v>
       </c>
@@ -5206,9 +5206,9 @@
       <c r="A4" s="6">
         <v>4</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="37"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="7" t="s">
         <v>20</v>
       </c>
@@ -5220,9 +5220,9 @@
       <c r="A5" s="6">
         <v>5</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="37"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="8" t="s">
         <v>21</v>
       </c>
@@ -5234,9 +5234,9 @@
       <c r="A6" s="6">
         <v>6</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="37"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="7" t="s">
         <v>20</v>
       </c>
@@ -5248,9 +5248,9 @@
       <c r="A7" s="6">
         <v>7</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="37"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="8" t="s">
         <v>21</v>
       </c>
@@ -5262,9 +5262,9 @@
       <c r="A8" s="6">
         <v>8</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="37"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
@@ -5276,9 +5276,9 @@
       <c r="A9" s="6">
         <v>9</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="38" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="40" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -5292,9 +5292,9 @@
       <c r="A10" s="6">
         <v>10</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="8" t="s">
         <v>22</v>
       </c>
@@ -5306,9 +5306,9 @@
       <c r="A11" s="6">
         <v>11</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="7" t="s">
         <v>23</v>
       </c>
@@ -5320,9 +5320,9 @@
       <c r="A12" s="6">
         <v>12</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="7" t="s">
         <v>22</v>
       </c>
@@ -5334,9 +5334,9 @@
       <c r="A13" s="6">
         <v>13</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="8" t="s">
         <v>23</v>
       </c>
@@ -5348,9 +5348,9 @@
       <c r="A14" s="6">
         <v>14</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="8" t="s">
         <v>22</v>
       </c>
@@ -5362,9 +5362,9 @@
       <c r="A15" s="6">
         <v>15</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="7" t="s">
         <v>23</v>
       </c>
@@ -5376,9 +5376,9 @@
       <c r="A16" s="6">
         <v>16</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="38"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="7" t="s">
         <v>22</v>
       </c>
@@ -5390,11 +5390,11 @@
       <c r="A17" s="6">
         <v>17</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="34" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="41" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="10" t="s">
@@ -5408,9 +5408,9 @@
       <c r="A18" s="6">
         <v>18</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="9" t="s">
         <v>24</v>
       </c>
@@ -5422,9 +5422,9 @@
       <c r="A19" s="6">
         <v>19</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="41"/>
       <c r="E19" s="10" t="s">
         <v>25</v>
       </c>
@@ -5436,9 +5436,9 @@
       <c r="A20" s="6">
         <v>20</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="9" t="s">
         <v>24</v>
       </c>
@@ -5450,9 +5450,9 @@
       <c r="A21" s="6">
         <v>21</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="10" t="s">
         <v>25</v>
       </c>
@@ -5464,9 +5464,9 @@
       <c r="A22" s="6">
         <v>22</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="9" t="s">
         <v>24</v>
       </c>
@@ -5478,9 +5478,9 @@
       <c r="A23" s="6">
         <v>23</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="10" t="s">
         <v>25</v>
       </c>
@@ -5492,9 +5492,9 @@
       <c r="A24" s="6">
         <v>24</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="9" t="s">
         <v>24</v>
       </c>
@@ -5506,9 +5506,9 @@
       <c r="A25" s="6">
         <v>25</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="38" t="s">
+      <c r="B25" s="40"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="40" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="10" t="s">
@@ -5522,9 +5522,9 @@
       <c r="A26" s="6">
         <v>26</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="38"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="40"/>
       <c r="E26" s="9" t="s">
         <v>26</v>
       </c>
@@ -5536,9 +5536,9 @@
       <c r="A27" s="6">
         <v>27</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="38"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="40"/>
       <c r="E27" s="10" t="s">
         <v>27</v>
       </c>
@@ -5550,9 +5550,9 @@
       <c r="A28" s="6">
         <v>28</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="38"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="40"/>
       <c r="E28" s="9" t="s">
         <v>26</v>
       </c>
@@ -5564,9 +5564,9 @@
       <c r="A29" s="6">
         <v>29</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="38"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="40"/>
       <c r="E29" s="10" t="s">
         <v>27</v>
       </c>
@@ -5578,9 +5578,9 @@
       <c r="A30" s="6">
         <v>30</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="38"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="9" t="s">
         <v>26</v>
       </c>
@@ -5592,9 +5592,9 @@
       <c r="A31" s="6">
         <v>31</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="38"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="40"/>
       <c r="E31" s="10" t="s">
         <v>27</v>
       </c>
@@ -5606,9 +5606,9 @@
       <c r="A32" s="6">
         <v>32</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="38"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="9" t="s">
         <v>26</v>
       </c>
@@ -5620,13 +5620,13 @@
       <c r="A33" s="6">
         <v>33</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="42" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="12" t="s">
@@ -5640,9 +5640,9 @@
       <c r="A34" s="6">
         <v>34</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="40"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="11" t="s">
         <v>28</v>
       </c>
@@ -5654,9 +5654,9 @@
       <c r="A35" s="6">
         <v>35</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="40"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="42"/>
       <c r="E35" s="12" t="s">
         <v>29</v>
       </c>
@@ -5668,9 +5668,9 @@
       <c r="A36" s="6">
         <v>36</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="40"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="42"/>
       <c r="E36" s="11" t="s">
         <v>28</v>
       </c>
@@ -5682,9 +5682,9 @@
       <c r="A37" s="6">
         <v>37</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="40"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="42"/>
       <c r="E37" s="12" t="s">
         <v>29</v>
       </c>
@@ -5696,9 +5696,9 @@
       <c r="A38" s="6">
         <v>38</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="40"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="42"/>
       <c r="E38" s="11" t="s">
         <v>28</v>
       </c>
@@ -5710,9 +5710,9 @@
       <c r="A39" s="6">
         <v>39</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="40"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="42"/>
       <c r="E39" s="12" t="s">
         <v>29</v>
       </c>
@@ -5724,9 +5724,9 @@
       <c r="A40" s="6">
         <v>40</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="40"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="42"/>
       <c r="E40" s="11" t="s">
         <v>28</v>
       </c>
@@ -5738,9 +5738,9 @@
       <c r="A41" s="6">
         <v>41</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="31" t="s">
+      <c r="B41" s="33"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="33" t="s">
         <v>17</v>
       </c>
       <c r="E41" s="12" t="s">
@@ -5754,9 +5754,9 @@
       <c r="A42" s="6">
         <v>42</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="31"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="33"/>
       <c r="E42" s="11" t="s">
         <v>30</v>
       </c>
@@ -5768,9 +5768,9 @@
       <c r="A43" s="6">
         <v>43</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="31"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="33"/>
       <c r="E43" s="12" t="s">
         <v>31</v>
       </c>
@@ -5782,9 +5782,9 @@
       <c r="A44" s="6">
         <v>44</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="31"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="33"/>
       <c r="E44" s="11" t="s">
         <v>30</v>
       </c>
@@ -5796,9 +5796,9 @@
       <c r="A45" s="6">
         <v>45</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="31"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="33"/>
       <c r="E45" s="12" t="s">
         <v>31</v>
       </c>
@@ -5810,9 +5810,9 @@
       <c r="A46" s="6">
         <v>46</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="31"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="33"/>
       <c r="E46" s="11" t="s">
         <v>30</v>
       </c>
@@ -5824,9 +5824,9 @@
       <c r="A47" s="6">
         <v>47</v>
       </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="31"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="33"/>
       <c r="E47" s="12" t="s">
         <v>31</v>
       </c>
@@ -5838,9 +5838,9 @@
       <c r="A48" s="6">
         <v>48</v>
       </c>
-      <c r="B48" s="31"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="31"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="33"/>
       <c r="E48" s="11" t="s">
         <v>30</v>
       </c>
@@ -5852,11 +5852,11 @@
       <c r="A49" s="6">
         <v>49</v>
       </c>
-      <c r="B49" s="31"/>
-      <c r="C49" s="36" t="s">
+      <c r="B49" s="33"/>
+      <c r="C49" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="32" t="s">
+      <c r="D49" s="34" t="s">
         <v>18</v>
       </c>
       <c r="E49" s="14" t="s">
@@ -5870,9 +5870,9 @@
       <c r="A50" s="6">
         <v>50</v>
       </c>
-      <c r="B50" s="31"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="32"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="34"/>
       <c r="E50" s="13" t="s">
         <v>32</v>
       </c>
@@ -5884,9 +5884,9 @@
       <c r="A51" s="6">
         <v>51</v>
       </c>
-      <c r="B51" s="31"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="32"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="34"/>
       <c r="E51" s="14" t="s">
         <v>33</v>
       </c>
@@ -5898,9 +5898,9 @@
       <c r="A52" s="6">
         <v>52</v>
       </c>
-      <c r="B52" s="31"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="32"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="34"/>
       <c r="E52" s="13" t="s">
         <v>32</v>
       </c>
@@ -5912,9 +5912,9 @@
       <c r="A53" s="6">
         <v>53</v>
       </c>
-      <c r="B53" s="31"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="32"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="34"/>
       <c r="E53" s="14" t="s">
         <v>33</v>
       </c>
@@ -5926,9 +5926,9 @@
       <c r="A54" s="6">
         <v>54</v>
       </c>
-      <c r="B54" s="31"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="32"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="34"/>
       <c r="E54" s="13" t="s">
         <v>32</v>
       </c>
@@ -5940,9 +5940,9 @@
       <c r="A55" s="6">
         <v>55</v>
       </c>
-      <c r="B55" s="31"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="32"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="34"/>
       <c r="E55" s="14" t="s">
         <v>33</v>
       </c>
@@ -5954,9 +5954,9 @@
       <c r="A56" s="6">
         <v>56</v>
       </c>
-      <c r="B56" s="31"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="32"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="34"/>
       <c r="E56" s="13" t="s">
         <v>32</v>
       </c>
@@ -5968,9 +5968,9 @@
       <c r="A57" s="6">
         <v>57</v>
       </c>
-      <c r="B57" s="31"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="31" t="s">
+      <c r="B57" s="33"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="33" t="s">
         <v>19</v>
       </c>
       <c r="E57" s="14" t="s">
@@ -5984,9 +5984,9 @@
       <c r="A58" s="6">
         <v>58</v>
       </c>
-      <c r="B58" s="31"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="31"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="33"/>
       <c r="E58" s="13" t="s">
         <v>34</v>
       </c>
@@ -5998,9 +5998,9 @@
       <c r="A59" s="6">
         <v>59</v>
       </c>
-      <c r="B59" s="31"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="31"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="33"/>
       <c r="E59" s="14" t="s">
         <v>35</v>
       </c>
@@ -6012,9 +6012,9 @@
       <c r="A60" s="6">
         <v>60</v>
       </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="31"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="33"/>
       <c r="E60" s="13" t="s">
         <v>34</v>
       </c>
@@ -6026,9 +6026,9 @@
       <c r="A61" s="6">
         <v>61</v>
       </c>
-      <c r="B61" s="31"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="31"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="33"/>
       <c r="E61" s="14" t="s">
         <v>35</v>
       </c>
@@ -6040,9 +6040,9 @@
       <c r="A62" s="6">
         <v>62</v>
       </c>
-      <c r="B62" s="31"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="31"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="33"/>
       <c r="E62" s="13" t="s">
         <v>34</v>
       </c>
@@ -6054,9 +6054,9 @@
       <c r="A63" s="6">
         <v>63</v>
       </c>
-      <c r="B63" s="31"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="31"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="33"/>
       <c r="E63" s="14" t="s">
         <v>35</v>
       </c>
@@ -6068,9 +6068,9 @@
       <c r="A64" s="6">
         <v>64</v>
       </c>
-      <c r="B64" s="31"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="31"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="33"/>
       <c r="E64" s="13" t="s">
         <v>34</v>
       </c>

--- a/data/Schedule2425.xlsx
+++ b/data/Schedule2425.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cverhoosel/Documents/2_Education/4GB00_Energy_Storage_and_Transport/Energy-Storage-and-Transport.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E563115C-8598-AA48-B6F8-6919E487C359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1604E91D-0BAD-814E-B1B4-5111943D14A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{2D163C62-21D0-CD47-A46E-4E9962794ACA}"/>
   </bookViews>
@@ -609,9 +609,6 @@
     <t>2,3,5,7,8</t>
   </si>
   <si>
-    <t>2,3,4,6,7</t>
-  </si>
-  <si>
     <t>Tutor meetings: Monday weeks 2-7, Tuesday week 8, 13:45-14:15</t>
   </si>
   <si>
@@ -661,6 +658,9 @@
   </si>
   <si>
     <t>Atlas 3.201, Atlas 5.201, Atlas 5.320, Neuron 0.356</t>
+  </si>
+  <si>
+    <t>2,3,4,7</t>
   </si>
 </sst>
 </file>
@@ -980,7 +980,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EEA40B81-DE2F-8242-BAE7-48CAEEDFC366}" name="Table1" displayName="Table1" ref="A1:J109" totalsRowShown="0">
-  <autoFilter ref="A1:J109" xr:uid="{EEA40B81-DE2F-8242-BAE7-48CAEEDFC366}"/>
+  <autoFilter ref="A1:J109" xr:uid="{EEA40B81-DE2F-8242-BAE7-48CAEEDFC366}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Wednesday"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{DF3DD820-9CDA-8D42-82C4-2306FA65CB10}" name="Activity"/>
     <tableColumn id="9" xr3:uid="{8E14BA79-98E4-864F-A975-56A143F7DBB5}" name="Groups [1]" dataDxfId="5"/>
@@ -1316,8 +1322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C24B97F-BE93-2B4C-9C2D-295859860AD0}">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1364,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1385,7 +1391,7 @@
         <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1409,10 +1415,10 @@
         <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1433,7 +1439,7 @@
         <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1457,10 +1463,10 @@
         <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1485,10 +1491,10 @@
         <v>96</v>
       </c>
       <c r="J6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1513,10 +1519,10 @@
         <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1541,10 +1547,10 @@
         <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1569,10 +1575,10 @@
         <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1597,10 +1603,10 @@
         <v>85</v>
       </c>
       <c r="J10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1625,10 +1631,10 @@
         <v>92</v>
       </c>
       <c r="J11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1653,10 +1659,10 @@
         <v>88</v>
       </c>
       <c r="J12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1681,7 +1687,7 @@
         <v>88</v>
       </c>
       <c r="J13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1709,7 +1715,7 @@
         <v>82</v>
       </c>
       <c r="J14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1737,10 +1743,10 @@
         <v>93</v>
       </c>
       <c r="J15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1765,10 +1771,10 @@
         <v>91</v>
       </c>
       <c r="J16" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1793,7 +1799,7 @@
         <v>91</v>
       </c>
       <c r="J17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1821,7 +1827,7 @@
         <v>84</v>
       </c>
       <c r="J18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1849,10 +1855,10 @@
         <v>88</v>
       </c>
       <c r="J19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1877,10 +1883,10 @@
         <v>92</v>
       </c>
       <c r="J20" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1905,10 +1911,10 @@
         <v>92</v>
       </c>
       <c r="J21" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>118</v>
       </c>
@@ -1933,10 +1939,10 @@
         <v>121</v>
       </c>
       <c r="J22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>118</v>
       </c>
@@ -1961,10 +1967,10 @@
         <v>119</v>
       </c>
       <c r="J23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>118</v>
       </c>
@@ -1989,10 +1995,10 @@
         <v>121</v>
       </c>
       <c r="J24" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>118</v>
       </c>
@@ -2017,10 +2023,10 @@
         <v>119</v>
       </c>
       <c r="J25" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>118</v>
       </c>
@@ -2045,7 +2051,7 @@
         <v>119</v>
       </c>
       <c r="J26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -2073,10 +2079,10 @@
         <v>121</v>
       </c>
       <c r="J27" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -2101,7 +2107,7 @@
         <v>119</v>
       </c>
       <c r="J28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -2129,10 +2135,10 @@
         <v>121</v>
       </c>
       <c r="J29" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -2159,10 +2165,10 @@
         <v>70</v>
       </c>
       <c r="J30" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -2189,10 +2195,10 @@
         <v>107</v>
       </c>
       <c r="J31" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>102</v>
       </c>
@@ -2219,10 +2225,10 @@
         <v>103</v>
       </c>
       <c r="J32" s="31" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
         <v>102</v>
       </c>
@@ -2249,10 +2255,10 @@
         <v>103</v>
       </c>
       <c r="J33" s="31" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -2279,10 +2285,10 @@
         <v>70</v>
       </c>
       <c r="J34" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -2309,10 +2315,10 @@
         <v>107</v>
       </c>
       <c r="J35" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -2339,10 +2345,10 @@
         <v>103</v>
       </c>
       <c r="J36" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>102</v>
       </c>
@@ -2369,10 +2375,10 @@
         <v>103</v>
       </c>
       <c r="J37" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>102</v>
       </c>
@@ -2399,10 +2405,10 @@
         <v>71</v>
       </c>
       <c r="J38" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -2429,10 +2435,10 @@
         <v>108</v>
       </c>
       <c r="J39" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -2459,10 +2465,10 @@
         <v>104</v>
       </c>
       <c r="J40" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
         <v>102</v>
       </c>
@@ -2489,10 +2495,10 @@
         <v>104</v>
       </c>
       <c r="J41" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -2519,10 +2525,10 @@
         <v>71</v>
       </c>
       <c r="J42" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -2549,10 +2555,10 @@
         <v>108</v>
       </c>
       <c r="J43" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>102</v>
       </c>
@@ -2579,10 +2585,10 @@
         <v>104</v>
       </c>
       <c r="J44" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -2609,10 +2615,10 @@
         <v>104</v>
       </c>
       <c r="J45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>102</v>
       </c>
@@ -2639,10 +2645,10 @@
         <v>72</v>
       </c>
       <c r="J46" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>102</v>
       </c>
@@ -2669,10 +2675,10 @@
         <v>109</v>
       </c>
       <c r="J47" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>102</v>
       </c>
@@ -2699,10 +2705,10 @@
         <v>105</v>
       </c>
       <c r="J48" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -2729,10 +2735,10 @@
         <v>105</v>
       </c>
       <c r="J49" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>102</v>
       </c>
@@ -2759,10 +2765,10 @@
         <v>72</v>
       </c>
       <c r="J50" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>102</v>
       </c>
@@ -2780,7 +2786,7 @@
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H51" t="s">
         <v>42</v>
@@ -2789,10 +2795,10 @@
         <v>109</v>
       </c>
       <c r="J51" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -2819,10 +2825,10 @@
         <v>105</v>
       </c>
       <c r="J52" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -2849,10 +2855,10 @@
         <v>105</v>
       </c>
       <c r="J53" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>102</v>
       </c>
@@ -2879,10 +2885,10 @@
         <v>73</v>
       </c>
       <c r="J54" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>102</v>
       </c>
@@ -2909,10 +2915,10 @@
         <v>110</v>
       </c>
       <c r="J55" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -2939,10 +2945,10 @@
         <v>106</v>
       </c>
       <c r="J56" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -2969,10 +2975,10 @@
         <v>106</v>
       </c>
       <c r="J57" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>102</v>
       </c>
@@ -2999,10 +3005,10 @@
         <v>73</v>
       </c>
       <c r="J58" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -3020,7 +3026,7 @@
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H59" t="s">
         <v>42</v>
@@ -3029,10 +3035,10 @@
         <v>110</v>
       </c>
       <c r="J59" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>102</v>
       </c>
@@ -3059,10 +3065,10 @@
         <v>106</v>
       </c>
       <c r="J60" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>102</v>
       </c>
@@ -3089,7 +3095,7 @@
         <v>106</v>
       </c>
       <c r="J61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -3119,7 +3125,7 @@
         <v>66</v>
       </c>
       <c r="J62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -3149,10 +3155,10 @@
         <v>103</v>
       </c>
       <c r="J63" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>102</v>
       </c>
@@ -3179,10 +3185,10 @@
         <v>107</v>
       </c>
       <c r="J64" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="17" t="s">
         <v>102</v>
       </c>
@@ -3209,7 +3215,7 @@
         <v>107</v>
       </c>
       <c r="J65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -3239,7 +3245,7 @@
         <v>66</v>
       </c>
       <c r="J66" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -3269,10 +3275,10 @@
         <v>103</v>
       </c>
       <c r="J67" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>102</v>
       </c>
@@ -3299,10 +3305,10 @@
         <v>107</v>
       </c>
       <c r="J68" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>102</v>
       </c>
@@ -3329,7 +3335,7 @@
         <v>107</v>
       </c>
       <c r="J69" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -3359,7 +3365,7 @@
         <v>67</v>
       </c>
       <c r="J70" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -3389,10 +3395,10 @@
         <v>104</v>
       </c>
       <c r="J71" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>102</v>
       </c>
@@ -3419,10 +3425,10 @@
         <v>108</v>
       </c>
       <c r="J72" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="17" t="s">
         <v>102</v>
       </c>
@@ -3449,7 +3455,7 @@
         <v>108</v>
       </c>
       <c r="J73" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -3479,7 +3485,7 @@
         <v>67</v>
       </c>
       <c r="J74" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -3509,10 +3515,10 @@
         <v>104</v>
       </c>
       <c r="J75" s="32" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>102</v>
       </c>
@@ -3539,10 +3545,10 @@
         <v>108</v>
       </c>
       <c r="J76" s="32" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>102</v>
       </c>
@@ -3569,7 +3575,7 @@
         <v>108</v>
       </c>
       <c r="J77" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -3599,7 +3605,7 @@
         <v>68</v>
       </c>
       <c r="J78" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -3629,10 +3635,10 @@
         <v>105</v>
       </c>
       <c r="J79" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>102</v>
       </c>
@@ -3659,10 +3665,10 @@
         <v>109</v>
       </c>
       <c r="J80" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>102</v>
       </c>
@@ -3689,7 +3695,7 @@
         <v>109</v>
       </c>
       <c r="J81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -3719,7 +3725,7 @@
         <v>68</v>
       </c>
       <c r="J82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -3740,7 +3746,7 @@
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="2" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="H83" t="s">
         <v>43</v>
@@ -3749,10 +3755,10 @@
         <v>105</v>
       </c>
       <c r="J83" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>102</v>
       </c>
@@ -3779,10 +3785,10 @@
         <v>109</v>
       </c>
       <c r="J84" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>102</v>
       </c>
@@ -3809,7 +3815,7 @@
         <v>109</v>
       </c>
       <c r="J85" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
@@ -3839,7 +3845,7 @@
         <v>69</v>
       </c>
       <c r="J86" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
@@ -3869,10 +3875,10 @@
         <v>106</v>
       </c>
       <c r="J87" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -3899,10 +3905,10 @@
         <v>110</v>
       </c>
       <c r="J88" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -3929,7 +3935,7 @@
         <v>110</v>
       </c>
       <c r="J89" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
@@ -3959,7 +3965,7 @@
         <v>69</v>
       </c>
       <c r="J90" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
@@ -3980,7 +3986,7 @@
       </c>
       <c r="F91" s="5"/>
       <c r="G91" s="2" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="H91" t="s">
         <v>43</v>
@@ -3989,10 +3995,10 @@
         <v>106</v>
       </c>
       <c r="J91" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>102</v>
       </c>
@@ -4019,10 +4025,10 @@
         <v>110</v>
       </c>
       <c r="J92" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>102</v>
       </c>
@@ -4049,10 +4055,10 @@
         <v>110</v>
       </c>
       <c r="J93" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>144</v>
       </c>
@@ -4077,10 +4083,10 @@
         <v>133</v>
       </c>
       <c r="J94" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>144</v>
       </c>
@@ -4105,10 +4111,10 @@
         <v>134</v>
       </c>
       <c r="J95" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>144</v>
       </c>
@@ -4133,10 +4139,10 @@
         <v>135</v>
       </c>
       <c r="J96" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>144</v>
       </c>
@@ -4161,7 +4167,7 @@
         <v>136</v>
       </c>
       <c r="J97" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
@@ -4189,7 +4195,7 @@
         <v>129</v>
       </c>
       <c r="J98" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
@@ -4217,7 +4223,7 @@
         <v>130</v>
       </c>
       <c r="J99" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
@@ -4245,7 +4251,7 @@
         <v>131</v>
       </c>
       <c r="J100" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
@@ -4273,10 +4279,10 @@
         <v>132</v>
       </c>
       <c r="J101" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>145</v>
       </c>
@@ -4299,10 +4305,10 @@
         <v>46</v>
       </c>
       <c r="J102" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>145</v>
       </c>
@@ -4325,10 +4331,10 @@
         <v>48</v>
       </c>
       <c r="J103" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>145</v>
       </c>
@@ -4351,10 +4357,10 @@
         <v>50</v>
       </c>
       <c r="J104" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>145</v>
       </c>
@@ -4377,10 +4383,10 @@
         <v>52</v>
       </c>
       <c r="J105" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>145</v>
       </c>
@@ -4403,10 +4409,10 @@
         <v>54</v>
       </c>
       <c r="J106" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>145</v>
       </c>
@@ -4429,10 +4435,10 @@
         <v>56</v>
       </c>
       <c r="J107" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>145</v>
       </c>
@@ -4455,10 +4461,10 @@
         <v>58</v>
       </c>
       <c r="J108" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>145</v>
       </c>
@@ -4481,7 +4487,7 @@
         <v>60</v>
       </c>
       <c r="J109" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
@@ -4652,7 +4658,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4698,7 +4704,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4765,7 +4771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44EEBB0-7826-4541-973F-D32118CA52EC}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -5140,8 +5146,8 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
